--- a/test3.xlsx
+++ b/test3.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -444,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>461844.6661530884</v>
+        <v>848.2859055110887</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>195601.295767178</v>
+        <v>668.8989077124006</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>149739.8795431682</v>
+        <v>655.853448133512</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>114458.375728665</v>
+        <v>643.0624126741143</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>101042.7650668654</v>
+        <v>632.8927907195147</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89114.48816406034</v>
+        <v>622.8839948506294</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84648.71157180131</v>
+        <v>615.3258143053157</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80344.47693092776</v>
+        <v>607.8593460108036</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78765.82454993727</v>
+        <v>602.4742260814272</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77180.90286218148</v>
+        <v>597.1368137621154</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76568.4793999674</v>
+        <v>593.435200834061</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>75956.19051075316</v>
+        <v>589.7565339678737</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75715.78394547132</v>
+        <v>587.2850459015896</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>75472.8826668456</v>
+        <v>584.8239150809012</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>75377.00114251758</v>
+        <v>583.2102232427114</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>75260.99502710992</v>
+        <v>581.6009840291208</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>75236.93142144398</v>
+        <v>580.5644035215948</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>75185.84530766205</v>
+        <v>579.5296704991712</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>75182.303061071</v>
+        <v>578.8713256221666</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>75155.33292663336</v>
+        <v>578.2137286239926</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>75155.32744553451</v>
+        <v>577.7987794946438</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>75153.64807709408</v>
+        <v>577.384128149304</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>75153.64807708311</v>
+        <v>577.1238834655882</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>75153.64582497816</v>
+        <v>576.863756082116</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>75153.645824978</v>
+        <v>576.701050981609</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>75153.64582196854</v>
+        <v>576.5383917722405</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>75153.64582196868</v>
+        <v>576.4368667700105</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>75153.64582196464</v>
+        <v>576.3353596455233</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>75153.6458219646</v>
+        <v>576.2720842975012</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>75153.64582196463</v>
+        <v>576.2088158966524</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>75153.64582196466</v>
+        <v>576.1694063703447</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>75153.64582196464</v>
+        <v>576.1299995391092</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>75153.6458219646</v>
+        <v>576.1054632252051</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0809279570212</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0656542586976</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0503809645656</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0408736226332</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0313664387053</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0254482856426</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0195301905387</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>75153.6458219646</v>
+        <v>576.015845962189</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0121617625667</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0098679944584</v>
       </c>
     </row>
     <row r="45">
@@ -788,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>75153.64582196464</v>
+        <v>576.007324598624</v>
       </c>
     </row>
     <row r="46">
@@ -796,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0060140115033</v>
       </c>
     </row>
     <row r="47">
@@ -804,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0046217125629</v>
       </c>
     </row>
     <row r="48">
@@ -812,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>75153.64582196466</v>
+        <v>576.003808074016</v>
       </c>
     </row>
     <row r="49">
@@ -820,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0029867853286</v>
       </c>
     </row>
     <row r="50">
@@ -828,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0024802711281</v>
       </c>
     </row>
     <row r="51">
@@ -836,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0019648338722</v>
       </c>
     </row>
     <row r="52">
@@ -844,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0016513646942</v>
       </c>
     </row>
     <row r="53">
@@ -852,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0013243895502</v>
       </c>
     </row>
     <row r="54">
@@ -860,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0011330572991</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>75153.64582196463</v>
+        <v>576.000884693044</v>
       </c>
     </row>
     <row r="56">
@@ -876,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0007993692582</v>
       </c>
     </row>
     <row r="57">
@@ -884,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75153.64582196464</v>
+        <v>576.000608071335</v>
       </c>
     </row>
     <row r="58">
@@ -892,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0005885591066</v>
       </c>
     </row>
     <row r="59">
@@ -900,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0004681587859</v>
       </c>
     </row>
     <row r="60">
@@ -908,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0004634230884</v>
       </c>
     </row>
     <row r="61">
@@ -916,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801734454</v>
       </c>
     </row>
     <row r="62">
@@ -924,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801222002</v>
       </c>
     </row>
     <row r="63">
@@ -932,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801218821</v>
       </c>
     </row>
     <row r="64">
@@ -940,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801489937</v>
       </c>
     </row>
     <row r="65">
@@ -948,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801489937</v>
       </c>
     </row>
     <row r="66">
@@ -956,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801898561</v>
       </c>
     </row>
     <row r="67">
@@ -964,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801898559</v>
       </c>
     </row>
     <row r="68">
@@ -972,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801995585</v>
       </c>
     </row>
     <row r="69">
@@ -980,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801995585</v>
       </c>
     </row>
     <row r="70">
@@ -988,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801577533</v>
       </c>
     </row>
     <row r="71">
@@ -996,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801577534</v>
       </c>
     </row>
     <row r="72">
@@ -1004,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801658015</v>
       </c>
     </row>
     <row r="73">
@@ -1012,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801658016</v>
       </c>
     </row>
     <row r="74">
@@ -1020,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801633076</v>
       </c>
     </row>
     <row r="75">
@@ -1028,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801633075</v>
       </c>
     </row>
     <row r="76">
@@ -1036,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801580331</v>
       </c>
     </row>
     <row r="77">
@@ -1044,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801580331</v>
       </c>
     </row>
     <row r="78">
@@ -1052,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801336787</v>
       </c>
     </row>
     <row r="79">
@@ -1060,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801336788</v>
       </c>
     </row>
     <row r="80">
@@ -1068,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801629165</v>
       </c>
     </row>
     <row r="81">
@@ -1076,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801629165</v>
       </c>
     </row>
     <row r="82">
@@ -1084,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801534695</v>
       </c>
     </row>
     <row r="83">
@@ -1092,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801534696</v>
       </c>
     </row>
     <row r="84">
@@ -1100,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801520066</v>
       </c>
     </row>
     <row r="85">
@@ -1108,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801520066</v>
       </c>
     </row>
     <row r="86">
@@ -1116,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801797436</v>
       </c>
     </row>
     <row r="87">
@@ -1124,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801797436</v>
       </c>
     </row>
     <row r="88">
@@ -1132,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003802082057</v>
       </c>
     </row>
     <row r="89">
@@ -1140,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003802082058</v>
       </c>
     </row>
     <row r="90">
@@ -1148,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801695817</v>
       </c>
     </row>
     <row r="91">
@@ -1156,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801695818</v>
       </c>
     </row>
     <row r="92">
@@ -1164,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801674189</v>
       </c>
     </row>
     <row r="93">
@@ -1172,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801674188</v>
       </c>
     </row>
     <row r="94">
@@ -1180,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801622474</v>
       </c>
     </row>
     <row r="95">
@@ -1188,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801622474</v>
       </c>
     </row>
     <row r="96">
@@ -1196,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801712317</v>
       </c>
     </row>
     <row r="97">
@@ -1204,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801712318</v>
       </c>
     </row>
     <row r="98">
@@ -1212,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801452865</v>
       </c>
     </row>
     <row r="99">
@@ -1220,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801452865</v>
       </c>
     </row>
     <row r="100">
@@ -1228,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801523789</v>
       </c>
     </row>
     <row r="101">
@@ -1236,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801523787</v>
       </c>
     </row>
     <row r="102">
@@ -1244,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801504615</v>
       </c>
     </row>
     <row r="103">
@@ -1252,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801504615</v>
       </c>
     </row>
     <row r="104">
@@ -1260,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801987242</v>
       </c>
     </row>
     <row r="105">
@@ -1268,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801987242</v>
       </c>
     </row>
     <row r="106">
@@ -1276,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801448811</v>
       </c>
     </row>
     <row r="107">
@@ -1284,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801448812</v>
       </c>
     </row>
     <row r="108">
@@ -1292,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801634367</v>
       </c>
     </row>
     <row r="109">
@@ -1300,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801634366</v>
       </c>
     </row>
     <row r="110">
@@ -1308,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801663449</v>
       </c>
     </row>
     <row r="111">
@@ -1316,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801663448</v>
       </c>
     </row>
     <row r="112">
@@ -1324,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801586491</v>
       </c>
     </row>
     <row r="113">
@@ -1332,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801586493</v>
       </c>
     </row>
     <row r="114">
@@ -1340,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>75153.6458219646</v>
+        <v>576.000380136468</v>
       </c>
     </row>
     <row r="115">
@@ -1348,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801364682</v>
       </c>
     </row>
     <row r="116">
@@ -1356,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801968768</v>
       </c>
     </row>
     <row r="117">
@@ -1364,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801968767</v>
       </c>
     </row>
     <row r="118">
@@ -1372,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>75153.6458219646</v>
+        <v>576.000380137766</v>
       </c>
     </row>
     <row r="119">
@@ -1380,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801377659</v>
       </c>
     </row>
     <row r="120">
@@ -1388,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801593248</v>
       </c>
     </row>
     <row r="121">
@@ -1396,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801593249</v>
       </c>
     </row>
     <row r="122">
@@ -1404,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801630208</v>
       </c>
     </row>
     <row r="123">
@@ -1412,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801630208</v>
       </c>
     </row>
     <row r="124">
@@ -1420,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801817393</v>
       </c>
     </row>
     <row r="125">
@@ -1428,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801817393</v>
       </c>
     </row>
     <row r="126">
@@ -1436,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801664054</v>
       </c>
     </row>
     <row r="127">
@@ -1444,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801664053</v>
       </c>
     </row>
     <row r="128">
@@ -1452,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801980347</v>
       </c>
     </row>
     <row r="129">
@@ -1460,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801980348</v>
       </c>
     </row>
     <row r="130">
@@ -1468,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801523128</v>
       </c>
     </row>
     <row r="131">
@@ -1476,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801523128</v>
       </c>
     </row>
     <row r="132">
@@ -1484,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801485047</v>
       </c>
     </row>
     <row r="133">
@@ -1492,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801485047</v>
       </c>
     </row>
     <row r="134">
@@ -1500,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801303408</v>
       </c>
     </row>
     <row r="135">
@@ -1508,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801303408</v>
       </c>
     </row>
     <row r="136">
@@ -1516,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380198078</v>
       </c>
     </row>
     <row r="137">
@@ -1524,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>75153.64582196464</v>
+        <v>576.000380198078</v>
       </c>
     </row>
     <row r="138">
@@ -1532,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801654858</v>
       </c>
     </row>
     <row r="139">
@@ -1540,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801654858</v>
       </c>
     </row>
     <row r="140">
@@ -1548,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801829561</v>
       </c>
     </row>
     <row r="141">
@@ -1556,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801829562</v>
       </c>
     </row>
     <row r="142">
@@ -1564,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801798216</v>
       </c>
     </row>
     <row r="143">
@@ -1572,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801798216</v>
       </c>
     </row>
     <row r="144">
@@ -1580,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380171577</v>
       </c>
     </row>
     <row r="145">
@@ -1588,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801715771</v>
       </c>
     </row>
     <row r="146">
@@ -1596,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801847084</v>
       </c>
     </row>
     <row r="147">
@@ -1604,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801847084</v>
       </c>
     </row>
     <row r="148">
@@ -1612,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380195656</v>
       </c>
     </row>
     <row r="149">
@@ -1620,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801956559</v>
       </c>
     </row>
     <row r="150">
@@ -1628,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>75153.6458219646</v>
+        <v>576.000380160959</v>
       </c>
     </row>
     <row r="151">
@@ -1636,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801609591</v>
       </c>
     </row>
     <row r="152">
@@ -1644,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801788561</v>
       </c>
     </row>
     <row r="153">
@@ -1652,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801788559</v>
       </c>
     </row>
     <row r="154">
@@ -1660,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>75153.6458219646</v>
+        <v>576.000380168183</v>
       </c>
     </row>
     <row r="155">
@@ -1668,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801681831</v>
       </c>
     </row>
     <row r="156">
@@ -1676,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801727971</v>
       </c>
     </row>
     <row r="157">
@@ -1684,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801727973</v>
       </c>
     </row>
     <row r="158">
@@ -1692,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801663984</v>
       </c>
     </row>
     <row r="159">
@@ -1700,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801663983</v>
       </c>
     </row>
     <row r="160">
@@ -1708,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380166027</v>
       </c>
     </row>
     <row r="161">
@@ -1716,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801660268</v>
       </c>
     </row>
     <row r="162">
@@ -1724,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801674602</v>
       </c>
     </row>
     <row r="163">
@@ -1732,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801674603</v>
       </c>
     </row>
     <row r="164">
@@ -1740,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801767883</v>
       </c>
     </row>
     <row r="165">
@@ -1748,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801767886</v>
       </c>
     </row>
     <row r="166">
@@ -1756,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801369201</v>
       </c>
     </row>
     <row r="167">
@@ -1764,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801369201</v>
       </c>
     </row>
     <row r="168">
@@ -1772,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380153783</v>
       </c>
     </row>
     <row r="169">
@@ -1780,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801537831</v>
       </c>
     </row>
     <row r="170">
@@ -1788,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801687337</v>
       </c>
     </row>
     <row r="171">
@@ -1796,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801687337</v>
       </c>
     </row>
     <row r="172">
@@ -1804,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801424497</v>
       </c>
     </row>
     <row r="173">
@@ -1812,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801424497</v>
       </c>
     </row>
     <row r="174">
@@ -1820,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801624435</v>
       </c>
     </row>
     <row r="175">
@@ -1828,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801624435</v>
       </c>
     </row>
     <row r="176">
@@ -1836,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801672148</v>
       </c>
     </row>
     <row r="177">
@@ -1844,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801672149</v>
       </c>
     </row>
     <row r="178">
@@ -1852,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801988967</v>
       </c>
     </row>
     <row r="179">
@@ -1860,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801988966</v>
       </c>
     </row>
     <row r="180">
@@ -1868,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801731558</v>
       </c>
     </row>
     <row r="181">
@@ -1876,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801731559</v>
       </c>
     </row>
     <row r="182">
@@ -1884,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801900161</v>
       </c>
     </row>
     <row r="183">
@@ -1892,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801900161</v>
       </c>
     </row>
     <row r="184">
@@ -1900,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801623051</v>
       </c>
     </row>
     <row r="185">
@@ -1908,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801623051</v>
       </c>
     </row>
     <row r="186">
@@ -1916,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801682666</v>
       </c>
     </row>
     <row r="187">
@@ -1924,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801682667</v>
       </c>
     </row>
     <row r="188">
@@ -1932,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>75153.64582196466</v>
+        <v>576.000380166333</v>
       </c>
     </row>
     <row r="189">
@@ -1940,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801663331</v>
       </c>
     </row>
     <row r="190">
@@ -1948,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801209598</v>
       </c>
     </row>
     <row r="191">
@@ -1956,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801209598</v>
       </c>
     </row>
     <row r="192">
@@ -1964,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801708876</v>
       </c>
     </row>
     <row r="193">
@@ -1972,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801708874</v>
       </c>
     </row>
     <row r="194">
@@ -1980,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801628228</v>
       </c>
     </row>
     <row r="195">
@@ -1988,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801628227</v>
       </c>
     </row>
     <row r="196">
@@ -1996,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801446628</v>
       </c>
     </row>
     <row r="197">
@@ -2004,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801446633</v>
       </c>
     </row>
     <row r="198">
@@ -2012,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>75153.6458219646</v>
+        <v>576.0003801902636</v>
       </c>
     </row>
     <row r="199">
@@ -2020,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>75153.64582196463</v>
+        <v>576.0003801902635</v>
       </c>
     </row>
     <row r="200">
@@ -2028,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>75153.64582196466</v>
+        <v>576.0003801537432</v>
       </c>
     </row>
     <row r="201">
@@ -2036,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>75153.64582196464</v>
+        <v>576.0003801537432</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>848.2859055110887</v>
+        <v>5.333333333333337</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>668.8989077124006</v>
+        <v>4.000000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655.853448133512</v>
+        <v>4.000000013361904</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643.0624126741143</v>
+        <v>4.000000013361904</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632.8927907195147</v>
+        <v>4.00000001037929</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622.8839948506294</v>
+        <v>4.00000001037929</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615.3258143053157</v>
+        <v>3.999999975535506</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607.8593460108036</v>
+        <v>3.999999975535507</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>602.4742260814272</v>
+        <v>3.999999986462095</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>597.1368137621154</v>
+        <v>3.999999986462093</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593.435200834061</v>
+        <v>4.000000012876531</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>589.7565339678737</v>
+        <v>4.000000012876532</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>587.2850459015896</v>
+        <v>4.000000013554397</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>584.8239150809012</v>
+        <v>4.000000013554397</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583.2102232427114</v>
+        <v>3.999999994381297</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>581.6009840291208</v>
+        <v>3.999999994381297</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>580.5644035215948</v>
+        <v>3.999999992334311</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>579.5296704991712</v>
+        <v>3.999999992334312</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>578.8713256221666</v>
+        <v>3.999999992777872</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>578.2137286239926</v>
+        <v>3.999999992777873</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>577.7987794946438</v>
+        <v>4.000000009466129</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>577.384128149304</v>
+        <v>4.000000009466129</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>577.1238834655882</v>
+        <v>3.999999998161608</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>576.863756082116</v>
+        <v>3.999999998161609</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>576.701050981609</v>
+        <v>4.000000008462978</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>576.5383917722405</v>
+        <v>4.000000008462978</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>576.4368667700105</v>
+        <v>3.999999998184645</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>576.3353596455233</v>
+        <v>3.999999998184645</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>576.2720842975012</v>
+        <v>3.999999997894358</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>576.2088158966524</v>
+        <v>3.999999997894358</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>576.1694063703447</v>
+        <v>3.999999998046645</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>576.1299995391092</v>
+        <v>3.999999998046645</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>576.1054632252051</v>
+        <v>3.999999986770036</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>576.0809279570212</v>
+        <v>3.999999986770037</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>576.0656542586976</v>
+        <v>3.999999994772274</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>576.0503809645656</v>
+        <v>3.999999994772273</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>576.0408736226332</v>
+        <v>3.999999985135638</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>576.0313664387053</v>
+        <v>3.999999985135639</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>576.0254482856426</v>
+        <v>3.999999985832429</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>576.0195301905387</v>
+        <v>3.999999985832429</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>576.015845962189</v>
+        <v>3.999999979216944</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>576.0121617625667</v>
+        <v>3.999999979216944</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>576.0098679944584</v>
+        <v>4.000000004977599</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>576.007324598624</v>
+        <v>4.000000004977599</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>576.0060140115033</v>
+        <v>3.999999978395874</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>576.0046217125629</v>
+        <v>3.999999978395874</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>576.003808074016</v>
+        <v>4.000000004173687</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>576.0029867853286</v>
+        <v>4.000000004173688</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>576.0024802711281</v>
+        <v>4.00000000341553</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>576.0019648338722</v>
+        <v>4.000000003415529</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>576.0016513646942</v>
+        <v>3.999999992230334</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>576.0013243895502</v>
+        <v>3.999999992230335</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>576.0011330572991</v>
+        <v>3.999999997719099</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>576.000884693044</v>
+        <v>3.999999997719098</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>576.0007993692582</v>
+        <v>3.999999991570415</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>576.000608071335</v>
+        <v>3.999999991570415</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>576.0005885591066</v>
+        <v>4.000000012736274</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>576.0004681587859</v>
+        <v>4.000000012736274</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>576.0004634230884</v>
+        <v>3.999999998743581</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>576.0003801734454</v>
+        <v>3.999999998743581</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>576.0003801222002</v>
+        <v>3.999999999148635</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>576.0003801218821</v>
+        <v>3.999999999148635</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>576.0003801489937</v>
+        <v>3.999999992051512</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>576.0003801489937</v>
+        <v>3.999999992051512</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>576.0003801898561</v>
+        <v>4.00000000054944</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>576.0003801898559</v>
+        <v>4.00000000054944</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>576.0003801995585</v>
+        <v>3.999999999592457</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>576.0003801995585</v>
+        <v>3.999999999592457</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>576.0003801577533</v>
+        <v>4.000000013813332</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>576.0003801577534</v>
+        <v>4.000000013813331</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>576.0003801658015</v>
+        <v>3.999999986380099</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>576.0003801658016</v>
+        <v>3.9999999863801</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>576.0003801633076</v>
+        <v>3.999999996577618</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>576.0003801633075</v>
+        <v>3.999999996577618</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>576.0003801580331</v>
+        <v>4.00000000651492</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>576.0003801580331</v>
+        <v>4.00000000651492</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>576.0003801336787</v>
+        <v>4.000000001591218</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>576.0003801336788</v>
+        <v>4.000000001591218</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>576.0003801629165</v>
+        <v>4.000000002267372</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>576.0003801629165</v>
+        <v>4.000000002267372</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>576.0003801534695</v>
+        <v>4.000000011042808</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>576.0003801534696</v>
+        <v>4.000000011042808</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>576.0003801520066</v>
+        <v>3.999999987881719</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>576.0003801520066</v>
+        <v>3.999999987881719</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>576.0003801797436</v>
+        <v>4.000000018514558</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>576.0003801797436</v>
+        <v>4.000000018514559</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>576.0003802082057</v>
+        <v>4.000000017145071</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>576.0003802082058</v>
+        <v>4.000000017145071</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>576.0003801695817</v>
+        <v>4.000000002685093</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>576.0003801695818</v>
+        <v>4.000000002685093</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>576.0003801674189</v>
+        <v>4.000000012093585</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>576.0003801674188</v>
+        <v>4.000000012093585</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>576.0003801622474</v>
+        <v>3.99999999453789</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>576.0003801622474</v>
+        <v>3.99999999453789</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>576.0003801712317</v>
+        <v>3.99999999589832</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>576.0003801712318</v>
+        <v>3.999999995898321</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>576.0003801452865</v>
+        <v>3.999999995297085</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>576.0003801452865</v>
+        <v>3.999999995297085</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>576.0003801523789</v>
+        <v>3.999999988912367</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>576.0003801523787</v>
+        <v>3.999999988912366</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>576.0003801504615</v>
+        <v>3.999999993480309</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>576.0003801504615</v>
+        <v>3.99999999348031</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>576.0003801987242</v>
+        <v>4.000000004777</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>576.0003801987242</v>
+        <v>4.000000004777</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>576.0003801448811</v>
+        <v>3.999999991767549</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>576.0003801448812</v>
+        <v>3.99999999176755</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>576.0003801634367</v>
+        <v>4.000000000376922</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>576.0003801634366</v>
+        <v>4.000000000376922</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>576.0003801663449</v>
+        <v>4.000000013094085</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>576.0003801663448</v>
+        <v>4.000000013094084</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>576.0003801586491</v>
+        <v>3.99999998660323</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>576.0003801586493</v>
+        <v>3.99999998660323</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>576.000380136468</v>
+        <v>4.000000011621001</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>576.0003801364682</v>
+        <v>4.000000011621002</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>576.0003801968768</v>
+        <v>4.000000000396327</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>576.0003801968767</v>
+        <v>4.000000000396327</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>576.000380137766</v>
+        <v>4.000000009186159</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>576.0003801377659</v>
+        <v>4.000000009186159</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>576.0003801593248</v>
+        <v>3.999999987121548</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>576.0003801593249</v>
+        <v>3.999999987121548</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>576.0003801630208</v>
+        <v>3.999999978796999</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>576.0003801630208</v>
+        <v>3.999999978797</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>576.0003801817393</v>
+        <v>4.000000013665393</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>576.0003801817393</v>
+        <v>4.000000013665392</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>576.0003801664054</v>
+        <v>3.999999996947723</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>576.0003801664053</v>
+        <v>3.999999996947723</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>576.0003801980347</v>
+        <v>3.999999994703741</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>576.0003801980348</v>
+        <v>3.999999994703742</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>576.0003801523128</v>
+        <v>4.000000001878854</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>576.0003801523128</v>
+        <v>4.000000001878854</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>576.0003801485047</v>
+        <v>4.000000006917359</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>576.0003801485047</v>
+        <v>4.000000006917358</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>576.0003801303408</v>
+        <v>4.000000022004512</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>576.0003801303408</v>
+        <v>4.00000002200451</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>576.000380198078</v>
+        <v>3.999999989127832</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>576.000380198078</v>
+        <v>3.999999989127833</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>576.0003801654858</v>
+        <v>3.999999993177004</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>576.0003801654858</v>
+        <v>3.999999993177004</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>576.0003801829561</v>
+        <v>3.999999992391564</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>576.0003801829562</v>
+        <v>3.999999992391564</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>576.0003801798216</v>
+        <v>4.000000010119219</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>576.0003801798216</v>
+        <v>4.00000001011922</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>576.000380171577</v>
+        <v>4.000000010607087</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>576.0003801715771</v>
+        <v>4.000000010607087</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>576.0003801847084</v>
+        <v>3.99999998819854</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>576.0003801847084</v>
+        <v>3.99999998819854</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>576.000380195656</v>
+        <v>3.999999999230813</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>576.0003801956559</v>
+        <v>3.999999999230813</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>576.000380160959</v>
+        <v>4.000000013722918</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>576.0003801609591</v>
+        <v>4.000000013722918</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>576.0003801788561</v>
+        <v>3.999999989121311</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>576.0003801788559</v>
+        <v>3.999999989121312</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>576.000380168183</v>
+        <v>3.999999998328615</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>576.0003801681831</v>
+        <v>3.999999998328615</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>576.0003801727971</v>
+        <v>4.000000015202852</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>576.0003801727973</v>
+        <v>4.000000015202852</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>576.0003801663984</v>
+        <v>4.000000010813462</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>576.0003801663983</v>
+        <v>4.000000010813462</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>576.000380166027</v>
+        <v>3.999999995856512</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>576.0003801660268</v>
+        <v>3.999999995856512</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>576.0003801674602</v>
+        <v>3.999999986121608</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>576.0003801674603</v>
+        <v>3.999999986121608</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>576.0003801767883</v>
+        <v>3.999999998690219</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>576.0003801767886</v>
+        <v>3.99999999869022</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>576.0003801369201</v>
+        <v>4.00000000303</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>576.0003801369201</v>
+        <v>4.000000003029999</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>576.000380153783</v>
+        <v>3.999999999927002</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>576.0003801537831</v>
+        <v>3.999999999927002</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>576.0003801687337</v>
+        <v>4.000000013954926</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>576.0003801687337</v>
+        <v>4.000000013954926</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>576.0003801424497</v>
+        <v>3.999999988163858</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>576.0003801424497</v>
+        <v>3.999999988163858</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>576.0003801624435</v>
+        <v>3.999999987944015</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>576.0003801624435</v>
+        <v>3.999999987944016</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>576.0003801672148</v>
+        <v>3.999999998509612</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>576.0003801672149</v>
+        <v>3.999999998509612</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>576.0003801988967</v>
+        <v>4.000000002510851</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>576.0003801988966</v>
+        <v>4.000000002510852</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>576.0003801731558</v>
+        <v>4.000000005187859</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>576.0003801731559</v>
+        <v>4.000000005187859</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>576.0003801900161</v>
+        <v>3.999999978270725</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>576.0003801900161</v>
+        <v>3.999999978270724</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>576.0003801623051</v>
+        <v>3.999999984393873</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>576.0003801623051</v>
+        <v>3.999999984393874</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>576.0003801682666</v>
+        <v>3.999999988376894</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>576.0003801682667</v>
+        <v>3.999999988376894</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>576.000380166333</v>
+        <v>4.000000010830826</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>576.0003801663331</v>
+        <v>4.000000010830826</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>576.0003801209598</v>
+        <v>4.000000008488575</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>576.0003801209598</v>
+        <v>4.000000008488575</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>576.0003801708876</v>
+        <v>4.000000001169571</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>576.0003801708874</v>
+        <v>4.000000001169571</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>576.0003801628228</v>
+        <v>4.000000014724026</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>576.0003801628227</v>
+        <v>4.000000014724026</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>576.0003801446628</v>
+        <v>3.999999994378358</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>576.0003801446633</v>
+        <v>3.999999994378359</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>576.0003801902636</v>
+        <v>3.999999984748067</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>576.0003801902635</v>
+        <v>3.999999984748067</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>576.0003801537432</v>
+        <v>4.000000019223354</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>576.0003801537432</v>
+        <v>4.000000019223353</v>
       </c>
     </row>
   </sheetData>
